--- a/npbenchmarkdata/GCP/Instance/data_size.xlsx
+++ b/npbenchmarkdata/GCP/Instance/data_size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmarkdata\GCP\Instance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DAF66F-14A6-419E-B1C6-D932B60A1F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A09FC5-5953-42FA-9B49-D461DED6F42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>DSJC0125.1</t>
   </si>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>DSJC1000.9</t>
+  </si>
+  <si>
+    <t>chvatal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -402,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -429,169 +433,183 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>736</v>
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>125</v>
       </c>
       <c r="C3">
-        <v>3891</v>
+        <v>736</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>125</v>
       </c>
       <c r="C4">
-        <v>6961</v>
+        <v>3891</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C5">
-        <v>3218</v>
+        <v>6961</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>250</v>
       </c>
       <c r="C6">
-        <v>15668</v>
+        <v>3218</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>250</v>
       </c>
       <c r="C7">
-        <v>27897</v>
+        <v>15668</v>
       </c>
       <c r="D7">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C8">
-        <v>12458</v>
+        <v>27897</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>500</v>
       </c>
       <c r="C9">
-        <v>62624</v>
+        <v>12458</v>
       </c>
       <c r="D9">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>500</v>
       </c>
       <c r="C10">
-        <v>112437</v>
+        <v>62624</v>
       </c>
       <c r="D10">
-        <v>126</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C11">
-        <v>49629</v>
+        <v>112437</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>1000</v>
       </c>
       <c r="C12">
-        <v>249826</v>
+        <v>49629</v>
       </c>
       <c r="D12">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>1000</v>
       </c>
       <c r="C13">
+        <v>249826</v>
+      </c>
+      <c r="D13">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>1000</v>
+      </c>
+      <c r="C14">
         <v>449449</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>224</v>
       </c>
     </row>
